--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E8840-577E-4FE3-8C86-F73262CE2C7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB659E2-286D-41C3-91D4-90A224440E51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vans" sheetId="1" r:id="rId1"/>
+    <sheet name="Permits" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Employee</t>
   </si>
@@ -102,9 +103,6 @@
     <t>Cam Crowe</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
@@ -123,9 +121,6 @@
     <t>Justin Blair</t>
   </si>
   <si>
-    <t>Canvassers</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -136,6 +131,60 @@
   </si>
   <si>
     <t>Van 2</t>
+  </si>
+  <si>
+    <t>Canvasser</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Broomfield</t>
+  </si>
+  <si>
+    <t>Permits have expiration dates</t>
+  </si>
+  <si>
+    <t>Expiration date</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Milliken</t>
+  </si>
+  <si>
+    <t>Johnstown</t>
+  </si>
+  <si>
+    <t>Greeley</t>
+  </si>
+  <si>
+    <t>Fort Collins</t>
+  </si>
+  <si>
+    <t>Plattesville</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Meade</t>
+  </si>
+  <si>
+    <t>Castle Rock</t>
+  </si>
+  <si>
+    <t>Lone Tree</t>
+  </si>
+  <si>
+    <t>Van A Hours</t>
+  </si>
+  <si>
+    <t>Van B Hours</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -528,564 +577,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F1">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J1">
+      <c r="K2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <f>IF(B5=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" t="s">
-        <v>27</v>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C34" si="0">IF(B6=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="K15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="D17" t="s">
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="D23" t="s">
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B5:B33)</f>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C5:C34)</f>
+        <v>26</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3">
+        <f>COUNTA($E5:$E33)</f>
+        <v>22</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35:K35" si="1">$E35 - COUNTIF(F5:F33, "OFF")</f>
+        <v>17</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:K36" si="2">F35*F2</f>
+        <v>136</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L36" s="4">
+        <f>SUM(F36:K36)</f>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <f>$B35*F2</f>
         <v>32</v>
       </c>
-      <c r="D34" s="3">
-        <f>COUNTA($D4:$D32)</f>
+      <c r="G37">
+        <f>$B35*G2</f>
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <f>$B35*H2</f>
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <f>$B35*I2</f>
+        <v>24</v>
+      </c>
+      <c r="J37">
+        <f>$B35*J2</f>
+        <v>24</v>
+      </c>
+      <c r="K37">
+        <f>$B35*K2</f>
         <v>22</v>
       </c>
-      <c r="E34" s="3">
-        <f t="shared" ref="E34:J34" si="0">$D34 - COUNTIF(E4:E32, "OFF")</f>
-        <v>17</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ref="E35:J35" si="1">E34*E1</f>
-        <v>136</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>133</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
+      <c r="L37" s="4">
+        <f t="shared" ref="L37:L38" si="3">SUM(F37:K37)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <f>$B35*F2</f>
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <f>$B35*G2</f>
+        <v>28</v>
+      </c>
+      <c r="H38">
+        <f>$B35*H2</f>
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <f>$B35*I2</f>
+        <v>24</v>
+      </c>
+      <c r="J38">
+        <f>$B35*J2</f>
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <f>$B35*K2</f>
         <v>22</v>
       </c>
-      <c r="K35" s="4">
-        <f>SUM(E35:J35)</f>
-        <v>663</v>
+      <c r="L38" s="4">
+        <f t="shared" si="3"/>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D7:J25">
-    <sortCondition ref="D7:D25"/>
+  <sortState ref="E8:K26">
+    <sortCondition ref="E8:E26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E717928-7A80-47CB-B92F-15428AD7721B}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB659E2-286D-41C3-91D4-90A224440E51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9A6EB-2237-45DC-91BA-854D35A51109}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Vans" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,32 +1298,32 @@
         <v>51</v>
       </c>
       <c r="F38">
-        <f>$B35*F2</f>
-        <v>32</v>
+        <f>$C35*F2</f>
+        <v>208</v>
       </c>
       <c r="G38">
-        <f>$B35*G2</f>
-        <v>28</v>
+        <f>$C35*G2</f>
+        <v>182</v>
       </c>
       <c r="H38">
-        <f>$B35*H2</f>
-        <v>24</v>
+        <f>$C35*H2</f>
+        <v>156</v>
       </c>
       <c r="I38">
-        <f>$B35*I2</f>
-        <v>24</v>
+        <f>$C35*I2</f>
+        <v>156</v>
       </c>
       <c r="J38">
-        <f>$B35*J2</f>
-        <v>24</v>
+        <f>$C35*J2</f>
+        <v>156</v>
       </c>
       <c r="K38">
-        <f>$B35*K2</f>
-        <v>22</v>
+        <f>$C35*K2</f>
+        <v>143</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -1337,68 +1337,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E717928-7A80-47CB-B92F-15428AD7721B}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
+      </c>
+      <c r="B5" t="str">
+        <f>B2</f>
+        <v>Parker</v>
+      </c>
+      <c r="C5" t="str">
+        <f>C2</f>
+        <v>Broomfield</v>
+      </c>
+      <c r="D5" t="str">
+        <f>D2</f>
+        <v>Milliken</v>
+      </c>
+      <c r="E5" t="str">
+        <f>E2</f>
+        <v>Johnstown</v>
+      </c>
+      <c r="F5" t="str">
+        <f>F2</f>
+        <v>Greeley</v>
+      </c>
+      <c r="G5" t="str">
+        <f>G2</f>
+        <v>Fort Collins</v>
+      </c>
+      <c r="H5" t="str">
+        <f>H2</f>
+        <v>Plattesville</v>
+      </c>
+      <c r="I5" t="str">
+        <f>I2</f>
+        <v>Frederick</v>
+      </c>
+      <c r="J5" t="str">
+        <f>J2</f>
+        <v>Meade</v>
+      </c>
+      <c r="K5" t="str">
+        <f>K2</f>
+        <v>Castle Rock</v>
+      </c>
+      <c r="L5" t="str">
+        <f>L2</f>
+        <v>Lone Tree</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Vans!E5</f>
+        <v>Spencer Russell</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Vans!E6</f>
+        <v>Adam Belvin</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Vans!E7</f>
+        <v>Cam Crowe</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Vans!E8</f>
+        <v>Allan Woodall</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>Vans!E9</f>
+        <v>Bill Canfield</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Vans!E10</f>
+        <v>Breanna Ybarra</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>Vans!E11</f>
+        <v>Colton Sasa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Vans!E12</f>
+        <v>Dom Rael</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>Vans!E13</f>
+        <v>Doncey Albin</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Vans!E14</f>
+        <v>Frank Harritt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>Vans!E15</f>
+        <v>Garrett Cumpster</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>Vans!E16</f>
+        <v>Jared Shelden</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>Vans!E17</f>
+        <v>Justin Blair</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>Vans!E18</f>
+        <v>Lucas Reilly</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>Vans!E19</f>
+        <v>Michael Finke</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>Vans!E20</f>
+        <v>Nick Visscher</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>Vans!E21</f>
+        <v>Pressley Farrell</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>Vans!E22</f>
+        <v>Rob Paddock</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>Vans!E23</f>
+        <v>Ryan McComber</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>Vans!E24</f>
+        <v>Sam Sammarco</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>Vans!E25</f>
+        <v>Stephen Vaulton</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>Vans!E26</f>
+        <v>Tim Raleigh</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>Vans!E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>Vans!E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>Vans!E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>Vans!E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>Vans!E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>Vans!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>Vans!E33</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9A6EB-2237-45DC-91BA-854D35A51109}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B967C27-C330-443B-87F6-4419E2B9E06B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Vans" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Employee</t>
   </si>
@@ -76,12 +76,6 @@
     <t>Dom Rael</t>
   </si>
   <si>
-    <t>Breanna Ybarra</t>
-  </si>
-  <si>
-    <t>Doncey Albin</t>
-  </si>
-  <si>
     <t>Bill Canfield</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Tim Raleigh</t>
   </si>
   <si>
-    <t>Justin Blair</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -185,6 +176,12 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -252,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,6 +260,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,32 +575,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
-  <dimension ref="A2:L38"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -611,60 +606,69 @@
         <v>6</v>
       </c>
       <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
       <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5">
         <f>IF(B5=1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -672,95 +676,100 @@
         <f t="shared" ref="C6:C34" si="0">IF(B6=1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="6"/>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -768,19 +777,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>1</v>
       </c>
@@ -788,47 +798,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="6"/>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>1</v>
       </c>
@@ -836,499 +840,490 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
+      <c r="D14" s="6"/>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="6"/>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="6"/>
+      <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="6"/>
+      <c r="F21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="6"/>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="D25" s="6"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="D27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="D28" s="6"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="D29" s="6"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="D30" s="6"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="D31" s="6"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="D32" s="6"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="D33" s="6"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="D34" s="6"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <f>SUM(B5:B33)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <f>SUM(C5:C34)</f>
-        <v>26</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3">
-        <f>COUNTA($E5:$E33)</f>
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="3">
-        <f t="shared" ref="F35:K35" si="1">$E35 - COUNTIF(F5:F33, "OFF")</f>
-        <v>17</v>
+        <f>COUNTA($F5:$F33)</f>
+        <v>19</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" ref="G35:L35" si="1">$F35 - COUNTIF(G5:G33, "OFF")</f>
+        <v>16</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:K36" si="2">F35*F2</f>
-        <v>136</v>
+        <v>17</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>28</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>133</v>
+        <f t="shared" ref="G36:L36" si="2">G35*G2</f>
+        <v>128</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="L36" s="4">
-        <f>SUM(F36:K36)</f>
-        <v>633</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37">
-        <f>$B35*F2</f>
-        <v>32</v>
+        <v>102</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="M36" s="4">
+        <f>SUM(G36:L36)</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>47</v>
       </c>
       <c r="G37">
-        <f>$B35*G2</f>
-        <v>28</v>
+        <f t="shared" ref="G37:L37" si="3">$B35*G2</f>
+        <v>40</v>
       </c>
       <c r="H37">
-        <f>$B35*H2</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="I37">
-        <f>$B35*I2</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="J37">
-        <f>$B35*J2</f>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="K37">
-        <f>$B35*K2</f>
-        <v>22</v>
-      </c>
-      <c r="L37" s="4">
-        <f t="shared" ref="L37:L38" si="3">SUM(F37:K37)</f>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38">
-        <f>$C35*F2</f>
-        <v>208</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" ref="M37:M38" si="4">SUM(G37:L37)</f>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>48</v>
       </c>
       <c r="G38">
-        <f>$C35*G2</f>
-        <v>182</v>
+        <f t="shared" ref="G38:L38" si="5">$C35*G2</f>
+        <v>200</v>
       </c>
       <c r="H38">
-        <f>$C35*H2</f>
-        <v>156</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="I38">
-        <f>$C35*I2</f>
-        <v>156</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="J38">
-        <f>$C35*J2</f>
-        <v>156</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="K38">
-        <f>$C35*K2</f>
-        <v>143</v>
-      </c>
-      <c r="L38" s="4">
-        <f t="shared" si="3"/>
-        <v>1001</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>137.5</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="4"/>
+        <v>962.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="E8:K26">
-    <sortCondition ref="E8:E26"/>
+  <sortState ref="F8:L26">
+    <sortCondition ref="F8:F26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1339,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E717928-7A80-47CB-B92F-15428AD7721B}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1351,272 +1346,272 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="str">
-        <f>B2</f>
+        <f t="shared" ref="B5:L5" si="0">B2</f>
         <v>Parker</v>
       </c>
       <c r="C5" t="str">
-        <f>C2</f>
+        <f t="shared" si="0"/>
         <v>Broomfield</v>
       </c>
       <c r="D5" t="str">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>Milliken</v>
       </c>
       <c r="E5" t="str">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>Johnstown</v>
       </c>
       <c r="F5" t="str">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>Greeley</v>
       </c>
       <c r="G5" t="str">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>Fort Collins</v>
       </c>
       <c r="H5" t="str">
-        <f>H2</f>
+        <f t="shared" si="0"/>
         <v>Plattesville</v>
       </c>
       <c r="I5" t="str">
-        <f>I2</f>
+        <f t="shared" si="0"/>
         <v>Frederick</v>
       </c>
       <c r="J5" t="str">
-        <f>J2</f>
+        <f t="shared" si="0"/>
         <v>Meade</v>
       </c>
       <c r="K5" t="str">
-        <f>K2</f>
+        <f t="shared" si="0"/>
         <v>Castle Rock</v>
       </c>
       <c r="L5" t="str">
-        <f>L2</f>
+        <f t="shared" si="0"/>
         <v>Lone Tree</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>Vans!E5</f>
+        <f>Vans!F5</f>
         <v>Spencer Russell</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Vans!E6</f>
+        <f>Vans!F6</f>
         <v>Adam Belvin</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Vans!E7</f>
+        <f>Vans!F7</f>
         <v>Cam Crowe</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Vans!E8</f>
+        <f>Vans!F8</f>
         <v>Allan Woodall</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Vans!E9</f>
+        <f>Vans!F9</f>
         <v>Bill Canfield</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>Vans!E10</f>
-        <v>Breanna Ybarra</v>
+      <c r="A11" t="e">
+        <f>Vans!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>Vans!E11</f>
+        <f>Vans!F11</f>
         <v>Colton Sasa</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Vans!E12</f>
+        <f>Vans!F12</f>
         <v>Dom Rael</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>Vans!E13</f>
-        <v>Doncey Albin</v>
+      <c r="A14" t="e">
+        <f>Vans!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>Vans!E14</f>
+        <f>Vans!F14</f>
         <v>Frank Harritt</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>Vans!E15</f>
+        <f>Vans!F15</f>
         <v>Garrett Cumpster</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>Vans!E16</f>
+        <f>Vans!F16</f>
         <v>Jared Shelden</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>Vans!E17</f>
-        <v>Justin Blair</v>
+      <c r="A18" t="e">
+        <f>Vans!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>Vans!E18</f>
+        <f>Vans!F18</f>
         <v>Lucas Reilly</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>Vans!E19</f>
+        <f>Vans!F19</f>
         <v>Michael Finke</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>Vans!E20</f>
+        <f>Vans!F20</f>
         <v>Nick Visscher</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>Vans!E21</f>
+        <f>Vans!F21</f>
         <v>Pressley Farrell</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>Vans!E22</f>
+        <f>Vans!F22</f>
         <v>Rob Paddock</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>Vans!E23</f>
+        <f>Vans!F23</f>
         <v>Ryan McComber</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>Vans!E24</f>
+        <f>Vans!F17</f>
         <v>Sam Sammarco</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>Vans!E25</f>
+        <f>Vans!F10</f>
         <v>Stephen Vaulton</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>Vans!E26</f>
+        <f>Vans!F13</f>
         <v>Tim Raleigh</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>Vans!E27</f>
+        <f>Vans!F27</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>Vans!E28</f>
+        <f>Vans!F28</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>Vans!E29</f>
+        <f>Vans!F29</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>Vans!E30</f>
+        <f>Vans!F30</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>Vans!E31</f>
+        <f>Vans!F31</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>Vans!E32</f>
+        <f>Vans!F32</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>Vans!E33</f>
+        <f>Vans!F33</f>
         <v>0</v>
       </c>
     </row>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B967C27-C330-443B-87F6-4419E2B9E06B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE9C9BA-2AE4-4AB8-8923-60A53A4E331D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vans" sheetId="1" r:id="rId1"/>
-    <sheet name="Permits" sheetId="2" r:id="rId2"/>
+    <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
+    <sheet name="Vans" sheetId="1" r:id="rId2"/>
+    <sheet name="Permits" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>Employee</t>
   </si>
@@ -94,9 +95,6 @@
     <t>Colton Sasa</t>
   </si>
   <si>
-    <t>Cam Crowe</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
@@ -182,6 +180,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -574,11 +581,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +1000,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -614,13 +1023,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -651,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -677,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -690,7 +1099,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -699,11 +1110,8 @@
         <v>1</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -711,7 +1119,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -730,7 +1138,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -749,7 +1157,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -760,14 +1168,16 @@
       </c>
       <c r="D10" s="6"/>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
@@ -787,7 +1197,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -808,7 +1218,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -819,16 +1229,16 @@
       </c>
       <c r="D13" s="6"/>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2"/>
     </row>
@@ -842,25 +1252,25 @@
       </c>
       <c r="D14" s="6"/>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -879,7 +1289,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -889,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -916,11 +1326,11 @@
       <c r="G17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -939,7 +1349,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -958,7 +1368,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -969,14 +1379,16 @@
       </c>
       <c r="D20" s="6"/>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
@@ -994,7 +1406,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1013,7 +1425,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1023,17 +1435,6 @@
         <v>1</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
@@ -1182,7 +1583,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <f>SUM(B5:B33)</f>
@@ -1195,69 +1596,69 @@
       <c r="E35" s="1"/>
       <c r="F35" s="3">
         <f>COUNTA($F5:$F33)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" ref="G35:L35" si="1">$F35 - COUNTIF(G5:G33, "OFF")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36">
         <f t="shared" ref="G36:L36" si="2">G35*G2</f>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>16.5</v>
       </c>
       <c r="M36" s="4">
         <f>SUM(G36:L36)</f>
-        <v>593</v>
+        <v>543.5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <f t="shared" ref="G37:L37" si="3">$B35*G2</f>
@@ -1290,7 +1691,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:L38" si="5">$C35*G2</f>
@@ -1330,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E717928-7A80-47CB-B92F-15428AD7721B}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -1346,55 +1747,55 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:L5" si="0">B2</f>
@@ -1454,9 +1855,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>Vans!F7</f>
-        <v>Cam Crowe</v>
+      <c r="A8" t="e">
+        <f>Vans!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1533,7 +1934,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>Vans!F20</f>
+        <f>Vans!F7</f>
         <v>Nick Visscher</v>
       </c>
     </row>
@@ -1551,7 +1952,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>Vans!F23</f>
+        <f>Vans!F20</f>
         <v>Ryan McComber</v>
       </c>
     </row>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE9C9BA-2AE4-4AB8-8923-60A53A4E331D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DAB01C-D9CD-497C-9930-05A1A00BAD7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
@@ -979,6 +979,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DAB01C-D9CD-497C-9930-05A1A00BAD7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99C6CF-CC4D-452C-8EFF-A2E7BD339F50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
@@ -22,12 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>Employee</t>
   </si>
@@ -98,9 +103,6 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>HPD hours</t>
   </si>
   <si>
@@ -110,9 +112,6 @@
     <t>Tim Raleigh</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>Stephen Vaulton</t>
   </si>
   <si>
@@ -165,12 +164,6 @@
   </si>
   <si>
     <t>Lone Tree</t>
-  </si>
-  <si>
-    <t>Van A Hours</t>
-  </si>
-  <si>
-    <t>Van B Hours</t>
   </si>
   <si>
     <t>Totals</t>
@@ -256,9 +249,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,7 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,24 +575,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -627,36 +619,36 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -665,36 +657,36 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -703,17 +695,17 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -722,36 +714,36 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -760,17 +752,17 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -779,67 +771,67 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -848,17 +840,17 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -867,18 +859,18 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -887,17 +879,17 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -906,17 +898,17 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -925,17 +917,17 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -944,17 +936,17 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -963,17 +955,17 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -985,606 +977,1134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
-  <dimension ref="A2:M38"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>24</v>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <f>IF(B5=1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="D5" t="str">
+        <f>IF(Canvassers!A2="", "", Canvassers!A2)</f>
+        <v>Spencer Russell</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF(Canvassers!D2= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>IF(Canvassers!E2= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>IF(Canvassers!F2= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>IF(Canvassers!G2= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>IF(Canvassers!H2= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>IF(Canvassers!I2= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" ref="C6:C34" si="0">IF(B6=1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="D6" t="str">
+        <f>IF(Canvassers!A3="", "", Canvassers!A3)</f>
+        <v>Adam Belvin</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF(Canvassers!D3= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>IF(Canvassers!E3= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>IF(Canvassers!F3= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>IF(Canvassers!G3= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>IF(Canvassers!H3= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>IF(Canvassers!I3= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(Canvassers!A4="", "", Canvassers!A4)</f>
+        <v>Jared Shelden</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>IF(Canvassers!D4= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>IF(Canvassers!E4= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>IF(Canvassers!F4= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>IF(Canvassers!G4= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>IF(Canvassers!H4= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>IF(Canvassers!I4= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(Canvassers!A5="", "", Canvassers!A5)</f>
+        <v>Nick Visscher</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>IF(Canvassers!D5= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>IF(Canvassers!E5= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IF(Canvassers!F5= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>IF(Canvassers!G5= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>IF(Canvassers!H5= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>IF(Canvassers!I5= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
+        <v>Allan Woodall</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF(Canvassers!D6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>IF(Canvassers!E6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IF(Canvassers!F6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>IF(Canvassers!G6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>IF(Canvassers!H6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f>IF(Canvassers!I6= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(Canvassers!A7="", "", Canvassers!A7)</f>
+        <v>Bill Canfield</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF(Canvassers!D7= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>IF(Canvassers!E7= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IF(Canvassers!F7= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>IF(Canvassers!G7= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>IF(Canvassers!H7= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f>IF(Canvassers!I7= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="D11" t="str">
+        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
+        <v>Stephen Vaulton</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF(Canvassers!D8= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>IF(Canvassers!E8= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IF(Canvassers!F8= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>IF(Canvassers!G8= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>IF(Canvassers!H8= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f>IF(Canvassers!I8= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="D12" t="str">
+        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
+        <v>Colton Sasa</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
+        <v>Dom Rael</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="D14" t="str">
+        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
+        <v>Tim Raleigh</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
+        <v>Frank Harritt</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
+        <v>Garrett Cumpster</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
+        <v>Sam Sammarco</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
+        <v>Lucas Reilly</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
+        <v>Michael Finke</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
+        <v>Ryan McComber</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
+        <v>Pressley Farrell</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
+        <v>Rob Paddock</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
+        <v/>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
+        <v/>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
+        <v/>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
+        <v/>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
+        <v/>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
+        <v/>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
+        <v/>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
+        <v/>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(Canvassers!A29="", "", Canvassers!A29)</f>
+        <v/>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>IF(Canvassers!D29= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>IF(Canvassers!E29= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>IF(Canvassers!F29= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>IF(Canvassers!G29= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f>IF(Canvassers!H29= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>IF(Canvassers!I29= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(Canvassers!A30="", "", Canvassers!A30)</f>
+        <v/>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>IF(Canvassers!D30= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>IF(Canvassers!E30= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>IF(Canvassers!F30= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>IF(Canvassers!G30= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>IF(Canvassers!H30= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f>IF(Canvassers!I30= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(Canvassers!A31="", "", Canvassers!A31)</f>
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>IF(Canvassers!D31= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>IF(Canvassers!E31= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>IF(Canvassers!F31= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>IF(Canvassers!G31= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f>IF(Canvassers!H31= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f>IF(Canvassers!I31= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <f>SUM(B5:B33)</f>
@@ -1594,47 +2114,51 @@
         <f>SUM(C5:C34)</f>
         <v>25</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3">
-        <f>COUNTA($F5:$F33)</f>
+      <c r="D35" s="2">
+        <f>COUNTA($D5:$D34)-COUNTIF($D5:$D34,"")</f>
         <v>18</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" ref="G35:L35" si="1">$F35 - COUNTIF(G5:G33, "OFF")</f>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35:J35" si="1">$D35 - COUNTIF(E5:E33, "OFF")</f>
         <v>15</v>
       </c>
-      <c r="H35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K35" s="3">
+      <c r="I35" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>27</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" ref="E36:J36" si="2">E35*E2</f>
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>119</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:L36" si="2">G35*G2</f>
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
@@ -1642,32 +2166,29 @@
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
-      <c r="M36" s="4">
-        <f>SUM(G36:L36)</f>
+      <c r="K36" s="3">
+        <f>SUM(E36:J36)</f>
         <v>543.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>46</v>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" ref="E37:J37" si="3">$B35*E2</f>
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:L37" si="3">$B35*G2</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
@@ -1675,32 +2196,29 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
-      <c r="M37" s="4">
-        <f t="shared" ref="M37:M38" si="4">SUM(G37:L37)</f>
+      <c r="K37" s="3">
+        <f t="shared" ref="K37:K38" si="4">SUM(E37:J37)</f>
         <v>192.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>47</v>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" ref="E38:J38" si="5">$C35*E2</f>
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:L38" si="5">$C35*G2</f>
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>150</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I38">
         <f t="shared" si="5"/>
@@ -1708,24 +2226,16 @@
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
         <v>137.5</v>
       </c>
-      <c r="M38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>962.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F8:L26">
-    <sortCondition ref="F8:F26"/>
+  <sortState ref="D8:J26">
+    <sortCondition ref="D8:D26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1737,7 +2247,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,55 +2258,55 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:L5" si="0">B2</f>
@@ -1845,13 +2355,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>Vans!F5</f>
+        <f>Vans!D5</f>
         <v>Spencer Russell</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Vans!F6</f>
+        <f>Vans!D6</f>
         <v>Adam Belvin</v>
       </c>
     </row>
@@ -1863,14 +2373,14 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Vans!F8</f>
-        <v>Allan Woodall</v>
+        <f>Vans!D8</f>
+        <v>Nick Visscher</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Vans!F9</f>
-        <v>Bill Canfield</v>
+        <f>Vans!D9</f>
+        <v>Allan Woodall</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1881,14 +2391,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>Vans!F11</f>
-        <v>Colton Sasa</v>
+        <f>Vans!D11</f>
+        <v>Stephen Vaulton</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Vans!F12</f>
-        <v>Dom Rael</v>
+        <f>Vans!D12</f>
+        <v>Colton Sasa</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1899,20 +2409,20 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>Vans!F14</f>
-        <v>Frank Harritt</v>
+        <f>Vans!D14</f>
+        <v>Tim Raleigh</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>Vans!F15</f>
-        <v>Garrett Cumpster</v>
+        <f>Vans!D15</f>
+        <v>Frank Harritt</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>Vans!F16</f>
-        <v>Jared Shelden</v>
+        <f>Vans!D16</f>
+        <v>Garrett Cumpster</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1923,98 +2433,98 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>Vans!F18</f>
+        <f>Vans!D18</f>
         <v>Lucas Reilly</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>Vans!F19</f>
+        <f>Vans!D19</f>
         <v>Michael Finke</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>Vans!F7</f>
-        <v>Nick Visscher</v>
+        <f>Vans!D7</f>
+        <v>Jared Shelden</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>Vans!F21</f>
+        <f>Vans!D21</f>
         <v>Pressley Farrell</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>Vans!F22</f>
+        <f>Vans!D22</f>
         <v>Rob Paddock</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>Vans!F20</f>
+        <f>Vans!D20</f>
         <v>Ryan McComber</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>Vans!F17</f>
+        <f>Vans!D17</f>
         <v>Sam Sammarco</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>Vans!F10</f>
-        <v>Stephen Vaulton</v>
+        <f>Vans!D10</f>
+        <v>Bill Canfield</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>Vans!F13</f>
-        <v>Tim Raleigh</v>
+        <f>Vans!D13</f>
+        <v>Dom Rael</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>Vans!F27</f>
-        <v>0</v>
+      <c r="A28" t="str">
+        <f>Vans!D27</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f>Vans!F28</f>
-        <v>0</v>
+      <c r="A29" t="str">
+        <f>Vans!D28</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>Vans!F29</f>
-        <v>0</v>
+      <c r="A30" t="str">
+        <f>Vans!D29</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>Vans!F30</f>
-        <v>0</v>
+      <c r="A31" t="str">
+        <f>Vans!D30</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>Vans!F31</f>
-        <v>0</v>
+      <c r="A32" t="str">
+        <f>Vans!D31</f>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>Vans!F32</f>
-        <v>0</v>
+      <c r="A33" t="str">
+        <f>Vans!D32</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>Vans!F33</f>
-        <v>0</v>
+      <c r="A34" t="str">
+        <f>Vans!D33</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CGebhardt\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99C6CF-CC4D-452C-8EFF-A2E7BD339F50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B490-F288-46F2-BFA1-BC2FEECEA230}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>Employee</t>
   </si>
@@ -67,9 +62,6 @@
     <t>Ryan McComber</t>
   </si>
   <si>
-    <t>Allan Woodall</t>
-  </si>
-  <si>
     <t>Garrett Cumpster</t>
   </si>
   <si>
@@ -95,9 +87,6 @@
   </si>
   <si>
     <t>Lucas Reilly</t>
-  </si>
-  <si>
-    <t>Colton Sasa</t>
   </si>
   <si>
     <t>OFF</t>
@@ -573,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,13 +576,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -616,16 +605,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -638,10 +627,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -649,7 +638,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -673,13 +662,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -687,18 +676,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -706,18 +695,18 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -725,18 +714,18 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -744,106 +733,101 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -851,38 +835,37 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -890,18 +873,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -909,18 +892,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -928,45 +911,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -979,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +937,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -1015,10 +960,10 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1190,33 +1135,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9" t="str">
-        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
-        <v>Allan Woodall</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f>IF(Canvassers!D6= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>IF(Canvassers!E6= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>IF(Canvassers!F6= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>IF(Canvassers!G6= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f>IF(Canvassers!H6= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f>IF(Canvassers!I6= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+      <c r="D9" t="e">
+        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1226,71 +1171,71 @@
         <v>1</v>
       </c>
       <c r="D10" t="str">
+        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
+        <v>Bill Canfield</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF(Canvassers!D6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>IF(Canvassers!E6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IF(Canvassers!F6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>IF(Canvassers!G6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>IF(Canvassers!H6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f>IF(Canvassers!I6= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
         <f>IF(Canvassers!A7="", "", Canvassers!A7)</f>
-        <v>Bill Canfield</v>
-      </c>
-      <c r="E10" s="1" t="str">
+        <v>Stephen Vaulton</v>
+      </c>
+      <c r="E11" s="1" t="str">
         <f>IF(Canvassers!D7= "OFF", "OFF", "")</f>
         <v/>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F11" s="1" t="str">
         <f>IF(Canvassers!E7= "OFF", "OFF", "")</f>
         <v/>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G11" s="1" t="str">
         <f>IF(Canvassers!F7= "OFF", "OFF", "")</f>
         <v/>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H11" s="1" t="str">
         <f>IF(Canvassers!G7= "OFF", "OFF", "")</f>
         <v/>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I11" s="1" t="str">
         <f>IF(Canvassers!H7= "OFF", "OFF", "")</f>
         <v/>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f>IF(Canvassers!I7= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
-        <v>Stephen Vaulton</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f>IF(Canvassers!D8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f>IF(Canvassers!E8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>IF(Canvassers!F8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f>IF(Canvassers!G8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f>IF(Canvassers!H8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f>IF(Canvassers!I8= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-    </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>1</v>
@@ -1299,33 +1244,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" t="str">
-        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
-        <v>Colton Sasa</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+      <c r="D12" t="e">
+        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1335,31 +1280,31 @@
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
+        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
         <v>Dom Rael</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J13" s="1" t="str">
-        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I8= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1372,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
+        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
         <v>Tim Raleigh</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1407,31 +1352,31 @@
         <v>1</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
+        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
         <v>Frank Harritt</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
+        <v/>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
+        <v/>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
+        <v/>
       </c>
       <c r="J15" s="1" t="str">
-        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1442,31 +1387,31 @@
         <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
+        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
         <v>Garrett Cumpster</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1477,31 +1422,31 @@
         <v>1</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
+        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
         <v>Sam Sammarco</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1512,31 +1457,31 @@
         <v>1</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
+        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
         <v>Lucas Reilly</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
-        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1547,31 +1492,31 @@
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
+        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
         <v>Michael Finke</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
-        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1582,31 +1527,31 @@
         <v>1</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
+        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
         <v>Ryan McComber</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J20" s="1" t="str">
-        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1617,31 +1562,31 @@
         <v>1</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
+        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
         <v>Pressley Farrell</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
-        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1652,31 +1597,31 @@
         <v>1</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
+        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
         <v>Rob Paddock</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
-        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1687,31 +1632,31 @@
         <v>1</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
+        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
         <v/>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
-        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1722,31 +1667,31 @@
         <v>1</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
+        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
         <v/>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J24" s="1" t="str">
-        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1757,31 +1702,31 @@
         <v>1</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
+        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
         <v/>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J25" s="1" t="str">
-        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1794,31 +1739,31 @@
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
+        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
         <v/>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J26" s="1" t="str">
-        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1829,31 +1774,31 @@
         <v>1</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
+        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
         <v/>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J27" s="1" t="str">
-        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1864,31 +1809,31 @@
         <v>1</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
+        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
         <v/>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J28" s="1" t="str">
-        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1899,31 +1844,31 @@
         <v>1</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
+        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
         <v/>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J29" s="1" t="str">
-        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1934,31 +1879,31 @@
         <v>1</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
+        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
         <v/>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J30" s="1" t="str">
-        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1969,31 +1914,31 @@
         <v>1</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
+        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
         <v/>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J31" s="1" t="str">
-        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -2004,31 +1949,31 @@
         <v>1</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(Canvassers!A29="", "", Canvassers!A29)</f>
+        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
         <v/>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IF(Canvassers!D29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(Canvassers!E29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF(Canvassers!F29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF(Canvassers!G29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF(Canvassers!H29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J32" s="1" t="str">
-        <f>IF(Canvassers!I29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -2039,31 +1984,31 @@
         <v>1</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(Canvassers!A30="", "", Canvassers!A30)</f>
+        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
         <v/>
       </c>
       <c r="E33" s="1" t="str">
-        <f>IF(Canvassers!D30= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(Canvassers!E30= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF(Canvassers!F30= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF(Canvassers!G30= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I33" s="1" t="str">
-        <f>IF(Canvassers!H30= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J33" s="1" t="str">
-        <f>IF(Canvassers!I30= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -2074,37 +2019,37 @@
         <v>1</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(Canvassers!A31="", "", Canvassers!A31)</f>
+        <f>IF(Canvassers!A29="", "", Canvassers!A29)</f>
         <v/>
       </c>
       <c r="E34" s="1" t="str">
-        <f>IF(Canvassers!D31= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(Canvassers!E31= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF(Canvassers!F31= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF(Canvassers!G31= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I34" s="1" t="str">
-        <f>IF(Canvassers!H31= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J34" s="1" t="str">
-        <f>IF(Canvassers!I31= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I29= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <f>SUM(B5:B33)</f>
@@ -2128,19 +2073,19 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2154,23 +2099,23 @@
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="K36" s="3">
         <f>SUM(E36:J36)</f>
-        <v>543.5</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2258,55 +2203,55 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:L5" si="0">B2</f>
@@ -2378,9 +2323,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="A10" t="e">
         <f>Vans!D9</f>
-        <v>Allan Woodall</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,9 +2341,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="A13" t="e">
         <f>Vans!D12</f>
-        <v>Colton Sasa</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CGebhardt\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B490-F288-46F2-BFA1-BC2FEECEA230}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC75E5-005B-4421-86C3-AACB4945AB78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Employee</t>
   </si>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,8 +671,12 @@
         <v>47</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -811,9 +815,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>20</v>
@@ -850,7 +852,9 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
@@ -906,10 +910,18 @@
         <v>47</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
@@ -922,10 +934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C34" si="0">IF(B6=1,0,1)</f>
+        <f t="shared" ref="C6:C19" si="0">IF(B6=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="D6" t="str">
@@ -1060,10 +1072,12 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>IF(Canvassers!A4="", "", Canvassers!A4)</f>
@@ -1097,7 +1111,7 @@
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(B8=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="D8" t="str">
@@ -1110,11 +1124,11 @@
       </c>
       <c r="F8" s="1" t="str">
         <f>IF(Canvassers!E5= "OFF", "OFF", "")</f>
-        <v/>
+        <v>OFF</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>IF(Canvassers!F5= "OFF", "OFF", "")</f>
-        <v/>
+        <v>OFF</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>IF(Canvassers!G5= "OFF", "OFF", "")</f>
@@ -1132,36 +1146,36 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(B9=1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="D9" t="e">
-        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
+      <c r="D9" t="str">
+        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
+        <v>Bill Canfield</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF(Canvassers!D6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>IF(Canvassers!E6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IF(Canvassers!F6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>IF(Canvassers!G6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>IF(Canvassers!H6= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f>IF(Canvassers!I6= "OFF", "OFF", "")</f>
+        <v>OFF</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1171,31 +1185,31 @@
         <v>1</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
-        <v>Bill Canfield</v>
+        <f>IF(Canvassers!A7="", "", Canvassers!A7)</f>
+        <v>Stephen Vaulton</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF(Canvassers!D6= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D7= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF(Canvassers!E6= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E7= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IF(Canvassers!F6= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F7= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF(Canvassers!G6= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G7= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(Canvassers!H6= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H7= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J10" s="1" t="str">
-        <f>IF(Canvassers!I6= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I7= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1208,979 +1222,875 @@
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(Canvassers!A7="", "", Canvassers!A7)</f>
-        <v>Stephen Vaulton</v>
+        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
+        <v>Dom Rael</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF(Canvassers!D7= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(Canvassers!E7= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF(Canvassers!F7= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF(Canvassers!G7= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(Canvassers!H7= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H8= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J11" s="1" t="str">
-        <f>IF(Canvassers!I7= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I8= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <f>IF(B12=1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" t="str">
+        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
+        <v>Tim Raleigh</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" t="e">
-        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="1" t="e">
-        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="D13" t="str">
+        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
+        <v>Frank Harritt</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" t="str">
-        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
-        <v>Dom Rael</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f>IF(Canvassers!D8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>IF(Canvassers!E8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>IF(Canvassers!F8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>IF(Canvassers!G8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f>IF(Canvassers!H8= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f>IF(Canvassers!I8= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="D14" t="str">
+        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
+        <v>Garrett Cumpster</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" t="str">
-        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
-        <v>Tim Raleigh</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
+      <c r="D15" t="str">
+        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
+        <v>Sam Sammarco</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
+        <v/>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
+        <v>OFF</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="D15" t="str">
-        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
-        <v>Frank Harritt</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
-        <v>Garrett Cumpster</v>
+        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
+        <v>Lucas Reilly</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(B17=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
-        <v>Sam Sammarco</v>
+        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
+        <v>Michael Finke</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
-        <v/>
+        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
+        <v>OFF</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
+        <v/>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(B18=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
-        <v>Lucas Reilly</v>
+        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
+        <v>Ryan McComber</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
-        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(B19=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
-        <v>Michael Finke</v>
+        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
+        <v>Pressley Farrell</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
-        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(B20=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
-        <v>Ryan McComber</v>
+        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
+        <v>Rob Paddock</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
-        <v/>
+        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
+        <v>OFF</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
-        <v/>
+        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
+        <v>OFF</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
-        <v/>
+        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
+        <v>OFF</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
-        <v/>
+        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
+        <v>OFF</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" t="str">
-        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
-        <v>Pressley Farrell</v>
+        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
+        <v/>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
-        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" t="str">
-        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
-        <v>Rob Paddock</v>
+        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
+        <v/>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
-        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
-        <v>OFF</v>
+        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" t="str">
-        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
+        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
         <v/>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
-        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" t="str">
-        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
+        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
         <v/>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J24" s="1" t="str">
-        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" t="str">
-        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
+        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
         <v/>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J25" s="1" t="str">
-        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" t="str">
-        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
+        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
         <v/>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J26" s="1" t="str">
-        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" t="str">
-        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
+        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
         <v/>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J27" s="1" t="str">
-        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" t="str">
-        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
+        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
         <v/>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J28" s="1" t="str">
-        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C29" s="4"/>
       <c r="D29" t="str">
-        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
+        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
         <v/>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J29" s="1" t="str">
-        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" t="str">
-        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
+        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
         <v/>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J30" s="1" t="str">
-        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C31" s="4"/>
       <c r="D31" t="str">
-        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
+        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
         <v/>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J31" s="1" t="str">
-        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="C32" s="4"/>
       <c r="D32" t="str">
-        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
+        <f>IF(Canvassers!A29="", "", Canvassers!A29)</f>
         <v/>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H29= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J32" s="1" t="str">
-        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I29= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D33" t="str">
-        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
-        <v/>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H33" s="1" t="str">
-        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I33" s="1" t="str">
-        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
-        <v/>
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B5:B31)</f>
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C5:C32)</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <f>COUNTA($D5:$D32)-COUNTIF($D5:$D32,"")</f>
+        <v>16</v>
+      </c>
+      <c r="E33" s="2">
+        <f>$D33 - COUNTIF(E5:E31, "OFF")</f>
+        <v>13</v>
+      </c>
+      <c r="F33" s="2">
+        <f>$D33 - COUNTIF(F5:F31, "OFF")</f>
+        <v>13</v>
+      </c>
+      <c r="G33" s="2">
+        <f>$D33 - COUNTIF(G5:G31, "OFF")</f>
+        <v>12</v>
+      </c>
+      <c r="H33" s="2">
+        <f>$D33 - COUNTIF(H5:H31, "OFF")</f>
+        <v>15</v>
+      </c>
+      <c r="I33" s="2">
+        <f>$D33 - COUNTIF(I5:I31, "OFF")</f>
+        <v>14</v>
+      </c>
+      <c r="J33" s="2">
+        <f>$D33 - COUNTIF(J5:J31, "OFF")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D34" t="str">
-        <f>IF(Canvassers!A29="", "", Canvassers!A29)</f>
-        <v/>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>IF(Canvassers!D29= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f>IF(Canvassers!E29= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f>IF(Canvassers!F29= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f>IF(Canvassers!G29= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I34" s="1" t="str">
-        <f>IF(Canvassers!H29= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f>IF(Canvassers!I29= "OFF", "OFF", "")</f>
-        <v/>
+      <c r="E34">
+        <f>E33*E2</f>
+        <v>104</v>
+      </c>
+      <c r="F34">
+        <f>F33*F2</f>
+        <v>91</v>
+      </c>
+      <c r="G34">
+        <f>G33*G2</f>
+        <v>72</v>
+      </c>
+      <c r="H34">
+        <f>H33*H2</f>
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <f>I33*I2</f>
+        <v>84</v>
+      </c>
+      <c r="J34">
+        <f>J33*J2</f>
+        <v>16.5</v>
+      </c>
+      <c r="K34" s="3">
+        <f>SUM(E34:J34)</f>
+        <v>457.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E35">
+        <f>$B33*E2</f>
+        <v>56</v>
+      </c>
+      <c r="F35">
+        <f>$B33*F2</f>
+        <v>49</v>
+      </c>
+      <c r="G35">
+        <f>$B33*G2</f>
         <v>42</v>
       </c>
-      <c r="B35">
-        <f>SUM(B5:B33)</f>
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <f>SUM(C5:C34)</f>
-        <v>25</v>
-      </c>
-      <c r="D35" s="2">
-        <f>COUNTA($D5:$D34)-COUNTIF($D5:$D34,"")</f>
-        <v>18</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" ref="E35:J35" si="1">$D35 - COUNTIF(E5:E33, "OFF")</f>
-        <v>15</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="H35">
+        <f>$B33*H2</f>
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <f>$B33*I2</f>
+        <v>42</v>
+      </c>
+      <c r="J35">
+        <f>$B33*J2</f>
+        <v>38.5</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:K36" si="1">SUM(E35:J35)</f>
+        <v>269.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E36">
-        <f t="shared" ref="E36:J36" si="2">E35*E2</f>
-        <v>120</v>
+        <f>$C33*E2</f>
+        <v>72</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f>$C33*F2</f>
+        <v>63</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f>$C33*G2</f>
+        <v>54</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f>$C33*H2</f>
+        <v>54</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f>$C33*I2</f>
+        <v>54</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
+        <f>$C33*J2</f>
+        <v>49.5</v>
       </c>
       <c r="K36" s="3">
-        <f>SUM(E36:J36)</f>
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <f t="shared" ref="E37:J37" si="3">$B35*E2</f>
-        <v>40</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" ref="K37:K38" si="4">SUM(E37:J37)</f>
-        <v>192.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <f t="shared" ref="E38:J38" si="5">$C35*E2</f>
-        <v>200</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="5"/>
-        <v>175</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>137.5</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="4"/>
-        <v>962.5</v>
+        <f t="shared" si="1"/>
+        <v>346.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D8:J26">
-    <sortCondition ref="D8:D26"/>
+  <sortState ref="D8:J24">
+    <sortCondition ref="D8:D24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2324,7 +2234,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
-        <f>Vans!D9</f>
+        <f>Vans!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2336,13 +2246,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>Vans!D11</f>
+        <f>Vans!D10</f>
         <v>Stephen Vaulton</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
-        <f>Vans!D12</f>
+        <f>Vans!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2354,19 +2264,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>Vans!D14</f>
+        <f>Vans!D12</f>
         <v>Tim Raleigh</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>Vans!D15</f>
+        <f>Vans!D13</f>
         <v>Frank Harritt</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>Vans!D16</f>
+        <f>Vans!D14</f>
         <v>Garrett Cumpster</v>
       </c>
     </row>
@@ -2378,13 +2288,13 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>Vans!D18</f>
+        <f>Vans!D16</f>
         <v>Lucas Reilly</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>Vans!D19</f>
+        <f>Vans!D17</f>
         <v>Michael Finke</v>
       </c>
     </row>
@@ -2396,79 +2306,79 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>Vans!D21</f>
+        <f>Vans!D19</f>
         <v>Pressley Farrell</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>Vans!D22</f>
+        <f>Vans!D20</f>
         <v>Rob Paddock</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>Vans!D20</f>
+        <f>Vans!D18</f>
         <v>Ryan McComber</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>Vans!D17</f>
+        <f>Vans!D15</f>
         <v>Sam Sammarco</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>Vans!D10</f>
+        <f>Vans!D9</f>
         <v>Bill Canfield</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>Vans!D13</f>
+        <f>Vans!D11</f>
         <v>Dom Rael</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>Vans!D27</f>
+        <f>Vans!D25</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>Vans!D28</f>
+        <f>Vans!D26</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>Vans!D29</f>
+        <f>Vans!D27</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>Vans!D30</f>
+        <f>Vans!D28</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>Vans!D31</f>
+        <f>Vans!D29</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>Vans!D32</f>
+        <f>Vans!D30</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>Vans!D33</f>
+        <f>Vans!D31</f>
         <v/>
       </c>
     </row>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CGebhardt\Desktop\areatracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC75E5-005B-4421-86C3-AACB4945AB78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C356A92-715B-40C9-A4DF-6DFBF7B2C2E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" activeTab="1" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Employee</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Frank Harritt</t>
-  </si>
-  <si>
-    <t>Tim Raleigh</t>
   </si>
   <si>
     <t>Stephen Vaulton</t>
@@ -562,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,13 +573,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -608,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -627,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -646,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -688,10 +685,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -704,13 +701,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -726,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -742,41 +739,39 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -786,16 +781,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -805,15 +799,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -823,17 +818,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -842,19 +839,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
@@ -863,13 +858,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -882,47 +877,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -936,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA0B2BD-B0EF-4271-88A5-884C2310780B}">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -972,10 +948,10 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1039,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C19" si="0">IF(B6=1,0,1)</f>
+        <f t="shared" ref="C6:C16" si="0">IF(B6=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="D6" t="str">
@@ -1256,33 +1232,33 @@
         <f>IF(B12=1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="D12" t="str">
-        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
-        <v>Tim Raleigh</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
-        <v/>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
-        <v>OFF</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
-        <v/>
+      <c r="D12" t="e">
+        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f>IF(Canvassers!#REF!= "OFF", "OFF", "")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1294,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
+        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
         <v>Frank Harritt</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D9= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E9= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F9= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G9= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H9= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J13" s="1" t="str">
-        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I9= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1329,31 +1305,31 @@
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
+        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
         <v>Garrett Cumpster</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D10= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E10= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F10= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G10= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H10= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J14" s="1" t="str">
-        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I10= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1366,31 +1342,31 @@
         <v>0</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
+        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
         <v>Sam Sammarco</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H11= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J15" s="1" t="str">
-        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I11= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1403,31 +1379,31 @@
         <v>0</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
+        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
         <v>Lucas Reilly</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H12= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I12= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1438,31 +1414,31 @@
         <v>1</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
+        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
         <v>Michael Finke</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F13= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H13= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I13= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1475,31 +1451,31 @@
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
+        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
         <v>Ryan McComber</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H14= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
-        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I14= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1510,31 +1486,31 @@
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
+        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
         <v>Pressley Farrell</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H15= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
-        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I15= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1545,31 +1521,31 @@
         <v>1</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
+        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
         <v>Rob Paddock</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D16= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I16= "OFF", "OFF", "")</f>
         <v>OFF</v>
       </c>
     </row>
@@ -1577,31 +1553,31 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" t="str">
-        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
+        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
         <v/>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H17= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
-        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I17= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1609,31 +1585,31 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" t="str">
-        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
+        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
         <v/>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H18= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
-        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I18= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1641,31 +1617,31 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" t="str">
-        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
+        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
         <v/>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H19= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
-        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I19= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1673,31 +1649,31 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" t="str">
-        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
+        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
         <v/>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H20= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J24" s="1" t="str">
-        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I20= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1705,31 +1681,31 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" t="str">
-        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
+        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
         <v/>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H21= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J25" s="1" t="str">
-        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I21= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1737,31 +1713,31 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" t="str">
-        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
+        <f>IF(Canvassers!A22="", "", Canvassers!A22)</f>
         <v/>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H22= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J26" s="1" t="str">
-        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I22= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1769,31 +1745,31 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" t="str">
-        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
+        <f>IF(Canvassers!A23="", "", Canvassers!A23)</f>
         <v/>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H23= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J27" s="1" t="str">
-        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I23= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1801,31 +1777,31 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" t="str">
-        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
+        <f>IF(Canvassers!A24="", "", Canvassers!A24)</f>
         <v/>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H24= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J28" s="1" t="str">
-        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I24= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1833,31 +1809,31 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" t="str">
-        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
+        <f>IF(Canvassers!A25="", "", Canvassers!A25)</f>
         <v/>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H25= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J29" s="1" t="str">
-        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I25= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1865,31 +1841,31 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" t="str">
-        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
+        <f>IF(Canvassers!A26="", "", Canvassers!A26)</f>
         <v/>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I30" s="1" t="str">
-        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H26= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J30" s="1" t="str">
-        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I26= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1897,31 +1873,31 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" t="str">
-        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
+        <f>IF(Canvassers!A27="", "", Canvassers!A27)</f>
         <v/>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I31" s="1" t="str">
-        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H27= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J31" s="1" t="str">
-        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I27= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
@@ -1929,37 +1905,37 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" t="str">
-        <f>IF(Canvassers!A29="", "", Canvassers!A29)</f>
+        <f>IF(Canvassers!A28="", "", Canvassers!A28)</f>
         <v/>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IF(Canvassers!D29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!D28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(Canvassers!E29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!E28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF(Canvassers!F29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!F28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF(Canvassers!G29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!G28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="I32" s="1" t="str">
-        <f>IF(Canvassers!H29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!H28= "OFF", "OFF", "")</f>
         <v/>
       </c>
       <c r="J32" s="1" t="str">
-        <f>IF(Canvassers!I29= "OFF", "OFF", "")</f>
+        <f>IF(Canvassers!I28= "OFF", "OFF", "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <f>SUM(B5:B31)</f>
@@ -1974,117 +1950,117 @@
         <v>16</v>
       </c>
       <c r="E33" s="2">
-        <f>$D33 - COUNTIF(E5:E31, "OFF")</f>
+        <f t="shared" ref="E33:J33" si="1">$D33 - COUNTIF(E5:E31, "OFF")</f>
         <v>13</v>
       </c>
       <c r="F33" s="2">
-        <f>$D33 - COUNTIF(F5:F31, "OFF")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G33" s="2">
-        <f>$D33 - COUNTIF(G5:G31, "OFF")</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="H33" s="2">
-        <f>$D33 - COUNTIF(H5:H31, "OFF")</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I33" s="2">
-        <f>$D33 - COUNTIF(I5:I31, "OFF")</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="J33" s="2">
-        <f>$D33 - COUNTIF(J5:J31, "OFF")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E34">
-        <f>E33*E2</f>
+        <f t="shared" ref="E34:J34" si="2">E33*E2</f>
         <v>104</v>
       </c>
       <c r="F34">
-        <f>F33*F2</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="G34">
-        <f>G33*G2</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="H34">
-        <f>H33*H2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="I34">
-        <f>I33*I2</f>
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="J34">
-        <f>J33*J2</f>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="K34" s="3">
         <f>SUM(E34:J34)</f>
-        <v>457.5</v>
+        <v>469.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E35">
-        <f>$B33*E2</f>
+        <f t="shared" ref="E35:J35" si="3">$B33*E2</f>
         <v>56</v>
       </c>
       <c r="F35">
-        <f>$B33*F2</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="G35">
-        <f>$B33*G2</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="H35">
-        <f>$B33*H2</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="I35">
-        <f>$B33*I2</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="J35">
-        <f>$B33*J2</f>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ref="K35:K36" si="1">SUM(E35:J35)</f>
+        <f t="shared" ref="K35:K36" si="4">SUM(E35:J35)</f>
         <v>269.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E36">
-        <f>$C33*E2</f>
+        <f t="shared" ref="E36:J36" si="5">$C33*E2</f>
         <v>72</v>
       </c>
       <c r="F36">
-        <f>$C33*F2</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="G36">
-        <f>$C33*G2</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="H36">
-        <f>$C33*H2</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="I36">
-        <f>$C33*I2</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="J36">
-        <f>$C33*J2</f>
+        <f t="shared" si="5"/>
         <v>49.5</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>346.5</v>
       </c>
     </row>
@@ -2113,55 +2089,55 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:L5" si="0">B2</f>
@@ -2263,9 +2239,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="A15" t="e">
         <f>Vans!D12</f>
-        <v>Tim Raleigh</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4F7AEF-0657-41C2-B857-091031519A5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB99F13-93EA-49B5-8F8C-55579D3E9CAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
-    <sheet name="Permits" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Permits" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>Saturday</t>
   </si>
@@ -146,15 +147,37 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Returned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -205,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +237,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +556,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +686,9 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -741,7 +768,9 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
@@ -806,9 +835,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -867,9 +894,7 @@
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
@@ -957,27 +982,27 @@
         <v>34</v>
       </c>
       <c r="D26" s="2">
-        <f>COUNTA($A2:$A25)-COUNTIF(D2:D25,"OFF")</f>
+        <f t="shared" ref="D26:I26" si="0">COUNTA($A2:$A25)-COUNTIF(D2:D25,"OFF")</f>
         <v>9</v>
       </c>
       <c r="E26" s="2">
-        <f>COUNTA($A2:$A25)-COUNTIF(E2:E25,"OFF")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F26" s="2">
-        <f>COUNTA($A2:$A25)-COUNTIF(F2:F25,"OFF")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G26" s="2">
-        <f>COUNTA($A2:$A25)-COUNTIF(G2:G25,"OFF")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTA($A2:$A25)-COUNTIF(H2:H25,"OFF")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTA($A2:$A25)-COUNTIF(I2:I25,"OFF")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -988,6 +1013,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F106E5-7D30-41C0-A7EF-669161904803}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E717928-7A80-47CB-B92F-15428AD7721B}">
   <dimension ref="A1:L22"/>
   <sheetViews>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB99F13-93EA-49B5-8F8C-55579D3E9CAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFC0B15-EB54-437E-9606-3AC7B1CC56D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
   <sheets>
     <sheet name="Canvassers" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="Permits" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Saturday</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Ryan McComber</t>
   </si>
   <si>
-    <t>Garrett Cumpster</t>
-  </si>
-  <si>
     <t>Michael Finke</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Returned</t>
+  </si>
+  <si>
+    <t>OFF?</t>
   </si>
 </sst>
 </file>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +567,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -618,36 +618,34 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -657,13 +655,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -671,186 +669,182 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -858,52 +852,41 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
@@ -970,40 +953,32 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="D26:I26" si="0">COUNTA($A2:$A25)-COUNTIF(D2:D25,"OFF")</f>
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:I25" si="0">COUNTA($A2:$A24)-COUNTIF(D2:D24,"OFF")</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +992,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,19 +1008,19 @@
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1277,40 +1252,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1450,9 +1425,9 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
-        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
-        <v>Garrett Cumpster</v>
+      <c r="A10" s="3" t="e">
+        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1468,7 +1443,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
-        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
+        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
         <v>Sam Sammarco</v>
       </c>
       <c r="B11" s="3"/>
@@ -1485,7 +1460,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
-        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
+        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
         <v>Lucas Reilly</v>
       </c>
       <c r="B12" s="3"/>
@@ -1502,7 +1477,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
-        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
+        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
         <v>Michael Finke</v>
       </c>
       <c r="B13" s="3"/>
@@ -1519,7 +1494,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
-        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
+        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
         <v>Ryan McComber</v>
       </c>
       <c r="B14" s="3"/>
@@ -1536,7 +1511,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
-        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
+        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
         <v>Pressley Farrell</v>
       </c>
       <c r="B15" s="3"/>
@@ -1553,7 +1528,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
-        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
+        <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
         <v>Rob Paddock</v>
       </c>
       <c r="B16" s="3"/>
@@ -1570,7 +1545,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
-        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
+        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
         <v/>
       </c>
       <c r="B17" s="3"/>
@@ -1587,7 +1562,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
-        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
+        <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
         <v/>
       </c>
       <c r="B18" s="3"/>
@@ -1604,7 +1579,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
-        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
+        <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
         <v/>
       </c>
       <c r="B19" s="3"/>
@@ -1621,7 +1596,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
-        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
+        <f>IF(Canvassers!A18="", "", Canvassers!A18)</f>
         <v/>
       </c>
       <c r="B20" s="3"/>
@@ -1638,7 +1613,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
-        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
+        <f>IF(Canvassers!A19="", "", Canvassers!A19)</f>
         <v/>
       </c>
       <c r="B21" s="3"/>
@@ -1655,7 +1630,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
-        <f>IF(Canvassers!A21="", "", Canvassers!A21)</f>
+        <f>IF(Canvassers!A20="", "", Canvassers!A20)</f>
         <v/>
       </c>
       <c r="B22" s="3"/>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CCrowe\Desktop\areatracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\SRussell\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFC0B15-EB54-437E-9606-3AC7B1CC56D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73395A1-8D12-42BD-AC5F-B6AB088EE278}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Saturday</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Team Lead</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>Returned</t>
-  </si>
-  <si>
-    <t>OFF?</t>
   </si>
 </sst>
 </file>
@@ -553,432 +547,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F08DB-F5D6-4927-94BC-37B479BB7D82}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:H25" si="0">COUNTA($A2:$A24)-COUNTIF(C2:C24,"OFF")</f>
+        <v>11</v>
+      </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:I25" si="0">COUNTA($A2:$A24)-COUNTIF(D2:D24,"OFF")</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1008,19 +935,19 @@
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\SRussell\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73395A1-8D12-42BD-AC5F-B6AB088EE278}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEFDDC-F251-435C-8F6B-011085073C5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Saturday</t>
   </si>
@@ -68,15 +68,9 @@
     <t>Dom Rael</t>
   </si>
   <si>
-    <t>Bill Canfield</t>
-  </si>
-  <si>
     <t>Nick Visscher</t>
   </si>
   <si>
-    <t>Rob Paddock</t>
-  </si>
-  <si>
     <t>Sam Sammarco</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>Returned</t>
+  </si>
+  <si>
+    <t>Michael Dullea</t>
+  </si>
+  <si>
+    <t>Ethan Stanik</t>
   </si>
 </sst>
 </file>
@@ -550,38 +550,40 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -590,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -606,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -620,23 +622,29 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -644,28 +652,26 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -675,47 +681,47 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -725,30 +731,34 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -756,15 +766,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -772,15 +782,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -788,15 +798,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -804,7 +814,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,7 +891,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ref="C25:H25" si="0">COUNTA($A2:$A24)-COUNTIF(C2:C24,"OFF")</f>
@@ -893,7 +903,7 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
@@ -935,19 +945,19 @@
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1179,40 +1189,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1284,9 +1294,9 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
-        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
-        <v>Bill Canfield</v>
+      <c r="A6" s="3" t="e">
+        <f>IF(Canvassers!#REF!="", "", Canvassers!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1302,7 +1312,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
-        <f>IF(Canvassers!A7="", "", Canvassers!A7)</f>
+        <f>IF(Canvassers!A6="", "", Canvassers!A6)</f>
         <v>Stephen Vaulton</v>
       </c>
       <c r="B7" s="3"/>
@@ -1319,7 +1329,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
-        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
+        <f>IF(Canvassers!A7="", "", Canvassers!A7)</f>
         <v>Dom Rael</v>
       </c>
       <c r="B8" s="3"/>
@@ -1336,7 +1346,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
-        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
+        <f>IF(Canvassers!A8="", "", Canvassers!A8)</f>
         <v>Frank Harritt</v>
       </c>
       <c r="B9" s="3"/>
@@ -1370,7 +1380,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
-        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
+        <f>IF(Canvassers!A9="", "", Canvassers!A9)</f>
         <v>Sam Sammarco</v>
       </c>
       <c r="B11" s="3"/>
@@ -1387,7 +1397,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
-        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
+        <f>IF(Canvassers!A10="", "", Canvassers!A10)</f>
         <v>Lucas Reilly</v>
       </c>
       <c r="B12" s="3"/>
@@ -1404,7 +1414,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
-        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
+        <f>IF(Canvassers!A11="", "", Canvassers!A11)</f>
         <v>Michael Finke</v>
       </c>
       <c r="B13" s="3"/>
@@ -1421,7 +1431,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
-        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
+        <f>IF(Canvassers!A12="", "", Canvassers!A12)</f>
         <v>Ryan McComber</v>
       </c>
       <c r="B14" s="3"/>
@@ -1438,7 +1448,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
-        <f>IF(Canvassers!A14="", "", Canvassers!A14)</f>
+        <f>IF(Canvassers!A13="", "", Canvassers!A13)</f>
         <v>Pressley Farrell</v>
       </c>
       <c r="B15" s="3"/>
@@ -1456,7 +1466,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(Canvassers!A15="", "", Canvassers!A15)</f>
-        <v>Rob Paddock</v>
+        <v>Ethan Stanik</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/Canvassers.xlsx
+++ b/Canvassers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\SRussell\Desktop\areatracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rba-col-dc01\RedirectedFolders\CGebhardt\Desktop\areatracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEFDDC-F251-435C-8F6B-011085073C5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFFCC2-624E-4C52-81DB-D78124A9EE29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8685" xr2:uid="{D597821E-E3B5-453B-91CF-9FFAFF40941B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Saturday</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Ethan Stanik</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Liam</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,15 +634,9 @@
         <v>16</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,6 +818,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -826,6 +829,9 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -895,27 +901,27 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ref="C25:H25" si="0">COUNTA($A2:$A24)-COUNTIF(C2:C24,"OFF")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1489,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
-        <v/>
+        <v>Dan</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1500,7 +1506,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(Canvassers!A16="", "", Canvassers!A16)</f>
-        <v/>
+        <v>Dan</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1517,7 +1523,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(Canvassers!A17="", "", Canvassers!A17)</f>
-        <v/>
+        <v>Liam</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
